--- a/party.xlsx
+++ b/party.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\GitHub\07-EduardoCampbell-DataCleaning-Janitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\campb\Documents\GitHub\workshop\07-EduardoCampbell-DataCleaning-Janitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9BF869-9757-454D-853E-4629F629B326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1635A5-925B-475B-9B94-DAFCE0DA85AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{200D7698-F81B-4F62-AE29-EA8D974EBAE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{200D7698-F81B-4F62-AE29-EA8D974EBAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
-  <si>
-    <t>Guest list for Hertie end of year party</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Note to organiser - remember to update this spreadsheet whenever anyone RSVPs</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -187,13 +181,22 @@
   </si>
   <si>
     <t>NUTS</t>
+  </si>
+  <si>
+    <t># Tickets Bought</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invitation List for Christmas Party </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -256,6 +267,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,286 +587,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C25187-F9F6-42F1-ADFA-0AF6F2FEB465}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44513</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44515</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44520</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44521</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5">
-        <v>44513</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5">
-        <v>44515</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I12" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5">
-        <v>44520</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5">
-        <v>44521</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -861,149 +917,172 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>44515</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>44516</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>44518</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="6">
-        <v>44515</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="6">
-        <v>44516</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6">
-        <v>44518</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>